--- a/Results_files/AlphaFold RBSH predictions added to PomBase curated orthologs.xlsx
+++ b/Results_files/AlphaFold RBSH predictions added to PomBase curated orthologs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vmonzon/Documents/Collaborational_work/2022-02-04-orthologs_AF/Public_data/Reciprocal_Best_Structure_Hits/Results_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B541397-99C3-B64E-A4E7-675EA2BCECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644235AD-C6E5-864C-935E-252C2C5127C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="348">
   <si>
     <t>FISSION YEAST</t>
   </si>
@@ -940,27 +940,6 @@
     <t>Translational repressor</t>
   </si>
   <si>
-    <t>SPBC2G2.02</t>
-  </si>
-  <si>
-    <t>syj1</t>
-  </si>
-  <si>
-    <t>inositol-polyphosphate 5-phosphatase, synaptojanin homolog 1</t>
-  </si>
-  <si>
-    <t>O43001</t>
-  </si>
-  <si>
-    <t>INP53/YOR109W</t>
-  </si>
-  <si>
-    <t>Q12271</t>
-  </si>
-  <si>
-    <t>Polyphosphatidylinositol phosphatase</t>
-  </si>
-  <si>
     <t>SPCC757.09c</t>
   </si>
   <si>
@@ -1001,21 +980,6 @@
   </si>
   <si>
     <t>Aminophospholipid translocase (flippase)</t>
-  </si>
-  <si>
-    <t>SPAC4F10.16c</t>
-  </si>
-  <si>
-    <t>plasma membrane phospholipid-translocating ATPase complex, ATPase subunit</t>
-  </si>
-  <si>
-    <t>O36028</t>
-  </si>
-  <si>
-    <t>DNF2/YDR093W</t>
-  </si>
-  <si>
-    <t>Q12675</t>
   </si>
   <si>
     <t>SPBC16A3.17c</t>
@@ -1431,10 +1395,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N997"/>
+  <dimension ref="A1:N995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2605,10 +2569,10 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>302</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -2633,7 +2597,7 @@
       <c r="A51" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="21" t="s">
         <v>309</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -2658,182 +2622,156 @@
       <c r="A52" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="G52" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="G53" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>327</v>
+      <c r="A54" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="B54" s="14"/>
-      <c r="C54" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>331</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15" t="s">
+      <c r="G55" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>337</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>341</v>
       </c>
+      <c r="B57" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>343</v>
+      </c>
       <c r="D57" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="H57" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="H57" s="2"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>352</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="H59" s="2"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -13132,28 +13070,6 @@
       <c r="H995" s="3"/>
       <c r="I995" s="3"/>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-      <c r="E996" s="3"/>
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
-      <c r="I996" s="3"/>
-    </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-      <c r="E997" s="3"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
